--- a/output/darlinghurst-nsw-2010.xlsx
+++ b/output/darlinghurst-nsw-2010.xlsx
@@ -3008,54 +3008,54 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Shelley Bays</t>
+          <t>Cameron Airlie</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Director, Licensee In Charge, Justice of the Peace</t>
+          <t>Sales Executive &amp; Partner</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>02 8084 4303</t>
+          <t>02 9315 6509</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0422 896 344</t>
+          <t>0410 560 961</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://rimh2.domainstatic.com.au/mvi6yV8P33lnmv070gYcXnBM0WQ=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/30177/contact_1403827.jpeg?date=637292943407498584</t>
+          <t>https://rimh2.domainstatic.com.au/fYeqf16EkhsjYVVZebloR6HVLF0=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/2134/contact_1225242.jpeg?date=637799217398848984</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Cameron Airlie</t>
+          <t>Shelley Bays</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Sales Executive &amp; Partner</t>
+          <t>Director, Licensee In Charge, Justice of the Peace</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>02 9315 6509</t>
+          <t>02 8084 4303</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0410 560 961</t>
+          <t>0422 896 344</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://rimh2.domainstatic.com.au/fYeqf16EkhsjYVVZebloR6HVLF0=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/2134/contact_1225242.jpeg?date=637799217398848984</t>
+          <t>https://rimh2.domainstatic.com.au/mvi6yV8P33lnmv070gYcXnBM0WQ=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/30177/contact_1403827.jpeg?date=637292943407498584</t>
         </is>
       </c>
     </row>
@@ -3224,50 +3224,50 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Joe Mariutto</t>
+          <t>Mitchell Dansey</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Licensed Real Estate Agent</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>02 9327 3744</t>
-        </is>
-      </c>
+          <t>Residential Sales</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0452 454 451</t>
+          <t>0407 003 531</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://rimh2.domainstatic.com.au/0W_gjdAi2n2NYXIhiLmbwCeGobo=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/49/contact_1440793.jpeg?date=637922507522186949</t>
+          <t>https://rimh2.domainstatic.com.au/xmhaEW5hwv7X-_23OjNnkt-woW0=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/4255/contact_1479292.jpeg?date=638013646205518219</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Mitchell Dansey</t>
+          <t>Joe Mariutto</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Residential Sales</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr"/>
+          <t>Licensed Real Estate Agent</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>02 9327 3744</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0407 003 531</t>
+          <t>0452 454 451</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://rimh2.domainstatic.com.au/xmhaEW5hwv7X-_23OjNnkt-woW0=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/4255/contact_1479292.jpeg?date=638013646205518219</t>
+          <t>https://rimh2.domainstatic.com.au/0W_gjdAi2n2NYXIhiLmbwCeGobo=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/49/contact_1440793.jpeg?date=637922507522186949</t>
         </is>
       </c>
     </row>
@@ -3551,50 +3551,50 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Natasha Giannone</t>
+          <t>Jason Bi</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Sales Associate</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr"/>
+          <t>Principal</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>02 8080 5596</t>
+        </is>
+      </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>0438 683 859</t>
+          <t>0460 588 888</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://rimh2.domainstatic.com.au/H37uBuXUFqPydEb1-M97EeTKQpg=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/20522/contact_1309160.JPG?date=637292863365723262</t>
+          <t>https://rimh2.domainstatic.com.au/mLcNLcFIH8YgtsFaqYuatknnSPk=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/32969/contact_1678029.jpeg?date=637292903114691470</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Jason Bi</t>
+          <t>Natasha Giannone</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Principal</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>02 8080 5596</t>
-        </is>
-      </c>
+          <t>Sales Associate</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>0460 588 888</t>
+          <t>0438 683 859</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://rimh2.domainstatic.com.au/mLcNLcFIH8YgtsFaqYuatknnSPk=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/32969/contact_1678029.jpeg?date=637292903114691470</t>
+          <t>https://rimh2.domainstatic.com.au/H37uBuXUFqPydEb1-M97EeTKQpg=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/20522/contact_1309160.JPG?date=637292863365723262</t>
         </is>
       </c>
     </row>
@@ -3647,73 +3647,73 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>David Servi</t>
+          <t>John Tsironis</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Director</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr"/>
+          <t>Managing Director</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>02 9552 2012</t>
+        </is>
+      </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>0412 96 1234</t>
+          <t>0402 696 497</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://rimh2.domainstatic.com.au/ZS9MnkF5ySycjUhfXusiOv-_r24=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/70/contact_681646.JPG?date=637292939866830755</t>
+          <t>https://rimh2.domainstatic.com.au/nae0xui4l9LNPL7-V9lU75KQ2IA=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/3468/contact_1201849.jpeg?date=637843355017317813</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Brigitte Blackman</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>+61 2 9356 5532</t>
-        </is>
-      </c>
+          <t>David Servi</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>+61 419 555 253</t>
+          <t>0412 96 1234</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://rimh2.domainstatic.com.au/PP-JhLJSECNbhPXJTCTu7LNwR1A=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/3914/contact_1633922.jpeg?date=637588518599942760</t>
+          <t>https://rimh2.domainstatic.com.au/ZS9MnkF5ySycjUhfXusiOv-_r24=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/70/contact_681646.JPG?date=637292939866830755</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>John Tsironis</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Managing Director</t>
-        </is>
-      </c>
+          <t>Brigitte Blackman</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr">
         <is>
-          <t>02 9552 2012</t>
+          <t>+61 2 9356 5532</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>0402 696 497</t>
+          <t>+61 419 555 253</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://rimh2.domainstatic.com.au/nae0xui4l9LNPL7-V9lU75KQ2IA=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/3468/contact_1201849.jpeg?date=637843355017317813</t>
+          <t>https://rimh2.domainstatic.com.au/PP-JhLJSECNbhPXJTCTu7LNwR1A=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/3914/contact_1633922.jpeg?date=637588518599942760</t>
         </is>
       </c>
     </row>
@@ -3774,54 +3774,54 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Ben  Collier</t>
+          <t>Jack Taylor</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Property Partner</t>
+          <t>Sales Executive - The Brodie Group</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>02 8376 9181</t>
+          <t>02 8322 0740</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>0414 646 476</t>
+          <t>0431 310 706</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://rimh2.domainstatic.com.au/IRKPVM-48A-QwiGJYHCwMlBgfIo=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/29154/contact_1365609.jpeg?date=637292937059685485</t>
+          <t>https://rimh2.domainstatic.com.au/oNXMrrL5t2kmBVSObRYqBtiBZ8c=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/17948/contact_1762981.jpeg?date=638272600449228492</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Jack Taylor</t>
+          <t>Ben  Collier</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Sales Executive - The Brodie Group</t>
+          <t>Property Partner</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>02 8322 0740</t>
+          <t>02 8376 9181</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>0431 310 706</t>
+          <t>0414 646 476</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://rimh2.domainstatic.com.au/oNXMrrL5t2kmBVSObRYqBtiBZ8c=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/17948/contact_1762981.jpeg?date=638272600449228492</t>
+          <t>https://rimh2.domainstatic.com.au/IRKPVM-48A-QwiGJYHCwMlBgfIo=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/29154/contact_1365609.jpeg?date=637292937059685485</t>
         </is>
       </c>
     </row>
@@ -4132,54 +4132,54 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Brenden Taliana</t>
+          <t>Michael Lyons</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Sales Associate - The Kemp Team</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>02 9241 1288</t>
+          <t>0415 768 324</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>0402 634 828</t>
+          <t>0415768324</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://rimh2.domainstatic.com.au/-tyBppo188LSsgP7i5n05U2iIF4=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/6877/contact_1778224.jpeg?date=637752608598146996</t>
+          <t>https://rimh2.domainstatic.com.au/QTpWqTHk13uxoEVKkjUfqRBS4Is=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/17948/contact_1824734.jpeg?date=637968498807347387</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Michael Lyons</t>
+          <t>Brenden Taliana</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Sales Associate - The Kemp Team</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>0415 768 324</t>
+          <t>02 9241 1288</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>0415768324</t>
+          <t>0402 634 828</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://rimh2.domainstatic.com.au/QTpWqTHk13uxoEVKkjUfqRBS4Is=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/17948/contact_1824734.jpeg?date=637968498807347387</t>
+          <t>https://rimh2.domainstatic.com.au/-tyBppo188LSsgP7i5n05U2iIF4=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/6877/contact_1778224.jpeg?date=637752608598146996</t>
         </is>
       </c>
     </row>
@@ -4755,50 +4755,50 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Cadan  Hickey</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Sales Associate</t>
-        </is>
-      </c>
+          <t>Daphne Sauvage</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr">
         <is>
-          <t>02 8322 0750</t>
+          <t>02 8355 6783</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>0404206240</t>
+          <t>0415 479 151</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://rimh2.domainstatic.com.au/suJGvGaekDEUqkQxR6cHauHPBXc=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/32413/contact_1904045.jpeg?date=638224335981459683</t>
+          <t>https://rimh2.domainstatic.com.au/mdEx--8qXUBMZN_oj_PwMO3AktU=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/20340/contact_1088223.jpeg?date=637292936834485400</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Daphne Sauvage</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr"/>
+          <t>Cadan  Hickey</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Sales Associate</t>
+        </is>
+      </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>02 8355 6783</t>
+          <t>02 8322 0750</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>0415 479 151</t>
+          <t>0404206240</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://rimh2.domainstatic.com.au/mdEx--8qXUBMZN_oj_PwMO3AktU=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/20340/contact_1088223.jpeg?date=637292936834485400</t>
+          <t>https://rimh2.domainstatic.com.au/suJGvGaekDEUqkQxR6cHauHPBXc=/232x232/top/filters:no_upscale():format(jpeg):quality(85)/https://images.domain.com.au/img/32413/contact_1904045.jpeg?date=638224335981459683</t>
         </is>
       </c>
     </row>
